--- a/data/pca/factorExposure/factorExposure_2015-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02117880191208907</v>
+        <v>0.01096937265563682</v>
       </c>
       <c r="C2">
-        <v>0.02420902782540887</v>
+        <v>0.05196088492888213</v>
       </c>
       <c r="D2">
-        <v>0.1072270448911394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1252013683951425</v>
+      </c>
+      <c r="E2">
+        <v>0.02433154435549492</v>
+      </c>
+      <c r="F2">
+        <v>0.02449249845236176</v>
+      </c>
+      <c r="G2">
+        <v>-0.09417536197408087</v>
+      </c>
+      <c r="H2">
+        <v>-0.1046814215310586</v>
+      </c>
+      <c r="I2">
+        <v>-0.08546235370355304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04181063215497225</v>
+        <v>0.01444554491617105</v>
       </c>
       <c r="C4">
-        <v>0.07166967402223838</v>
+        <v>0.1067493118863487</v>
       </c>
       <c r="D4">
-        <v>0.09996308327564615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1280583341849149</v>
+      </c>
+      <c r="E4">
+        <v>0.01489253559519479</v>
+      </c>
+      <c r="F4">
+        <v>0.09402549721916523</v>
+      </c>
+      <c r="G4">
+        <v>-0.007059174033940846</v>
+      </c>
+      <c r="H4">
+        <v>-0.05010923152067463</v>
+      </c>
+      <c r="I4">
+        <v>0.07477513425264191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02465039226858144</v>
+        <v>0.0279931032824079</v>
       </c>
       <c r="C6">
-        <v>0.0127549757993847</v>
+        <v>0.03705642648954397</v>
       </c>
       <c r="D6">
-        <v>0.1279632572008796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1207079671177392</v>
+      </c>
+      <c r="E6">
+        <v>0.06090929147048123</v>
+      </c>
+      <c r="F6">
+        <v>0.04734428737874813</v>
+      </c>
+      <c r="G6">
+        <v>0.01481172924176315</v>
+      </c>
+      <c r="H6">
+        <v>-0.04724645887657384</v>
+      </c>
+      <c r="I6">
+        <v>0.006022046579698047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001156951411955774</v>
+        <v>0.007853254832556207</v>
       </c>
       <c r="C7">
-        <v>0.02302701870072293</v>
+        <v>0.03827110483750711</v>
       </c>
       <c r="D7">
-        <v>0.1095650504532753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0959559603126217</v>
+      </c>
+      <c r="E7">
+        <v>0.05548857152755864</v>
+      </c>
+      <c r="F7">
+        <v>0.006107998032824351</v>
+      </c>
+      <c r="G7">
+        <v>0.02978740858920629</v>
+      </c>
+      <c r="H7">
+        <v>-0.06953529678715523</v>
+      </c>
+      <c r="I7">
+        <v>0.03270634800655205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0009044847808413743</v>
+        <v>-0.007927256815246158</v>
       </c>
       <c r="C8">
-        <v>0.02476721093789087</v>
+        <v>0.03495398439975166</v>
       </c>
       <c r="D8">
-        <v>0.07763636940685324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07720604000548129</v>
+      </c>
+      <c r="E8">
+        <v>0.03641249249242443</v>
+      </c>
+      <c r="F8">
+        <v>0.05354177369837814</v>
+      </c>
+      <c r="G8">
+        <v>-0.05966788648329257</v>
+      </c>
+      <c r="H8">
+        <v>-0.03492768465884897</v>
+      </c>
+      <c r="I8">
+        <v>0.01619371691871576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03396678233728832</v>
+        <v>0.01097894622052038</v>
       </c>
       <c r="C9">
-        <v>0.06128411472753257</v>
+        <v>0.08794536197070257</v>
       </c>
       <c r="D9">
-        <v>0.1079442803533978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.10996854972467</v>
+      </c>
+      <c r="E9">
+        <v>0.0147303413015281</v>
+      </c>
+      <c r="F9">
+        <v>0.06187135083512484</v>
+      </c>
+      <c r="G9">
+        <v>0.02294693429416533</v>
+      </c>
+      <c r="H9">
+        <v>-0.05818886104629996</v>
+      </c>
+      <c r="I9">
+        <v>0.04218745178733012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1749165224054536</v>
+        <v>0.2428108769534394</v>
       </c>
       <c r="C10">
-        <v>-0.1711400050126037</v>
+        <v>-0.08805183692322055</v>
       </c>
       <c r="D10">
-        <v>-0.01033844176753628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002894501793545802</v>
+      </c>
+      <c r="E10">
+        <v>-0.01463526593261572</v>
+      </c>
+      <c r="F10">
+        <v>0.04796806600765915</v>
+      </c>
+      <c r="G10">
+        <v>-0.005886339989929761</v>
+      </c>
+      <c r="H10">
+        <v>0.01561122551040773</v>
+      </c>
+      <c r="I10">
+        <v>-0.0212894695233975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01905955775886207</v>
+        <v>0.009443741684406249</v>
       </c>
       <c r="C11">
-        <v>0.04178692673415541</v>
+        <v>0.05872697841003551</v>
       </c>
       <c r="D11">
-        <v>0.04521298406435571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04019733194876816</v>
+      </c>
+      <c r="E11">
+        <v>0.02101469917745981</v>
+      </c>
+      <c r="F11">
+        <v>-0.01565007892560566</v>
+      </c>
+      <c r="G11">
+        <v>0.02262356994371689</v>
+      </c>
+      <c r="H11">
+        <v>-0.04200999578287216</v>
+      </c>
+      <c r="I11">
+        <v>0.0403727903607226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01855612053201908</v>
+        <v>0.009315514195632762</v>
       </c>
       <c r="C12">
-        <v>0.04127813682640526</v>
+        <v>0.0503756198471413</v>
       </c>
       <c r="D12">
-        <v>0.05691492868372261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04411418975337896</v>
+      </c>
+      <c r="E12">
+        <v>0.01519878087648326</v>
+      </c>
+      <c r="F12">
+        <v>-0.01945784367908017</v>
+      </c>
+      <c r="G12">
+        <v>0.04510994703394807</v>
+      </c>
+      <c r="H12">
+        <v>-0.05846249750783189</v>
+      </c>
+      <c r="I12">
+        <v>0.01681252873854882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003095783451377882</v>
+        <v>-0.005555739643917167</v>
       </c>
       <c r="C13">
-        <v>0.02487531006848801</v>
+        <v>0.04997070826591463</v>
       </c>
       <c r="D13">
-        <v>0.1303113900562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1459053652590122</v>
+      </c>
+      <c r="E13">
+        <v>0.04075909831752055</v>
+      </c>
+      <c r="F13">
+        <v>0.03195584623527111</v>
+      </c>
+      <c r="G13">
+        <v>0.003956349775924118</v>
+      </c>
+      <c r="H13">
+        <v>-0.086120036210468</v>
+      </c>
+      <c r="I13">
+        <v>-0.04105498576093711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004495403487273495</v>
+        <v>0.001542056108746924</v>
       </c>
       <c r="C14">
-        <v>0.01652866160900659</v>
+        <v>0.03241837377187815</v>
       </c>
       <c r="D14">
-        <v>0.08762507920020358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09676552853758291</v>
+      </c>
+      <c r="E14">
+        <v>0.05172487893803596</v>
+      </c>
+      <c r="F14">
+        <v>0.03062566699347705</v>
+      </c>
+      <c r="G14">
+        <v>0.02338740088137798</v>
+      </c>
+      <c r="H14">
+        <v>-0.1375596961223447</v>
+      </c>
+      <c r="I14">
+        <v>0.009400393481322312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002639440968558765</v>
+        <v>-0.003425818165510228</v>
       </c>
       <c r="C15">
-        <v>0.009978286271070261</v>
+        <v>0.0285476906396268</v>
       </c>
       <c r="D15">
-        <v>0.03626603300105754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.06266036608506007</v>
+      </c>
+      <c r="E15">
+        <v>0.01344054171198221</v>
+      </c>
+      <c r="F15">
+        <v>0.007219426929442198</v>
+      </c>
+      <c r="G15">
+        <v>-0.006797102476045863</v>
+      </c>
+      <c r="H15">
+        <v>-0.04743579343574164</v>
+      </c>
+      <c r="I15">
+        <v>0.01893272751315296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01757402970001994</v>
+        <v>0.008373892057662126</v>
       </c>
       <c r="C16">
-        <v>0.03748972736745589</v>
+        <v>0.05065162289713795</v>
       </c>
       <c r="D16">
-        <v>0.05107793299727321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04200492456594061</v>
+      </c>
+      <c r="E16">
+        <v>0.02300771079300282</v>
+      </c>
+      <c r="F16">
+        <v>-0.01076896746997688</v>
+      </c>
+      <c r="G16">
+        <v>0.033531240342937</v>
+      </c>
+      <c r="H16">
+        <v>-0.03832471262234818</v>
+      </c>
+      <c r="I16">
+        <v>0.02720316690248532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0001623637115375408</v>
+        <v>-0.002588594910819172</v>
       </c>
       <c r="C19">
-        <v>0.01974999492481794</v>
+        <v>0.01618633347340566</v>
       </c>
       <c r="D19">
-        <v>0.07692502692944625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.05336718414480698</v>
+      </c>
+      <c r="E19">
+        <v>-0.01097691367414622</v>
+      </c>
+      <c r="F19">
+        <v>0.01121761368223521</v>
+      </c>
+      <c r="G19">
+        <v>-0.002734068082869198</v>
+      </c>
+      <c r="H19">
+        <v>-0.04953355567682428</v>
+      </c>
+      <c r="I19">
+        <v>-0.01033907769861444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002571229168308704</v>
+        <v>0.003754347749759884</v>
       </c>
       <c r="C20">
-        <v>0.02508247573237877</v>
+        <v>0.04232811459005573</v>
       </c>
       <c r="D20">
-        <v>0.07366006873950218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08688387295522049</v>
+      </c>
+      <c r="E20">
+        <v>0.02400563094634752</v>
+      </c>
+      <c r="F20">
+        <v>0.0264307500613887</v>
+      </c>
+      <c r="G20">
+        <v>0.02134202922501734</v>
+      </c>
+      <c r="H20">
+        <v>-0.05481454667024316</v>
+      </c>
+      <c r="I20">
+        <v>0.04825640287872796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.004514682577754848</v>
+        <v>0.001351441653894767</v>
       </c>
       <c r="C21">
-        <v>0.02901294888655853</v>
+        <v>0.04612402861287251</v>
       </c>
       <c r="D21">
-        <v>0.1375006756867252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1242914370418566</v>
+      </c>
+      <c r="E21">
+        <v>0.03358178958199257</v>
+      </c>
+      <c r="F21">
+        <v>0.08682906414344595</v>
+      </c>
+      <c r="G21">
+        <v>0.02942003985030124</v>
+      </c>
+      <c r="H21">
+        <v>-0.1954038902745415</v>
+      </c>
+      <c r="I21">
+        <v>-0.05405972015815905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001717352107906989</v>
+        <v>-0.01543560098180431</v>
       </c>
       <c r="C22">
-        <v>0.06671907540714127</v>
+        <v>0.08857406089018909</v>
       </c>
       <c r="D22">
-        <v>0.2721373045350076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2703558780099451</v>
+      </c>
+      <c r="E22">
+        <v>0.06555423998180539</v>
+      </c>
+      <c r="F22">
+        <v>0.02050853402030057</v>
+      </c>
+      <c r="G22">
+        <v>-0.4451930221619282</v>
+      </c>
+      <c r="H22">
+        <v>0.316536279014419</v>
+      </c>
+      <c r="I22">
+        <v>-0.0758933222207324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0020190698430716</v>
+        <v>-0.01226323816826991</v>
       </c>
       <c r="C23">
-        <v>0.06719377021017536</v>
+        <v>0.0903601708905018</v>
       </c>
       <c r="D23">
-        <v>0.2716239530044204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2729472977506308</v>
+      </c>
+      <c r="E23">
+        <v>0.06063976287371568</v>
+      </c>
+      <c r="F23">
+        <v>0.02349765141960332</v>
+      </c>
+      <c r="G23">
+        <v>-0.4308987809760868</v>
+      </c>
+      <c r="H23">
+        <v>0.3029870441848026</v>
+      </c>
+      <c r="I23">
+        <v>-0.07525568842194869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02326642142666833</v>
+        <v>0.009072263407088802</v>
       </c>
       <c r="C24">
-        <v>0.05737271300567878</v>
+        <v>0.06731826514265805</v>
       </c>
       <c r="D24">
-        <v>0.05965931550751954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04542420963563697</v>
+      </c>
+      <c r="E24">
+        <v>0.02940090194319793</v>
+      </c>
+      <c r="F24">
+        <v>-0.007826423238948076</v>
+      </c>
+      <c r="G24">
+        <v>0.02542601331698351</v>
+      </c>
+      <c r="H24">
+        <v>-0.06586283606824081</v>
+      </c>
+      <c r="I24">
+        <v>0.03543199233250161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02378392647388071</v>
+        <v>0.013250279245501</v>
       </c>
       <c r="C25">
-        <v>0.04861069547134723</v>
+        <v>0.06167708523808079</v>
       </c>
       <c r="D25">
-        <v>0.05466459217759494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04837044471240796</v>
+      </c>
+      <c r="E25">
+        <v>0.01476480881822608</v>
+      </c>
+      <c r="F25">
+        <v>-0.007342497907465581</v>
+      </c>
+      <c r="G25">
+        <v>0.0235468031674382</v>
+      </c>
+      <c r="H25">
+        <v>-0.03072135894141336</v>
+      </c>
+      <c r="I25">
+        <v>0.02406546163953916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008925142573494969</v>
+        <v>0.01601524766069794</v>
       </c>
       <c r="C26">
-        <v>0.014964335946379</v>
+        <v>0.02947780808301918</v>
       </c>
       <c r="D26">
-        <v>0.07642899552250475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06681274278950074</v>
+      </c>
+      <c r="E26">
+        <v>0.04145199101281017</v>
+      </c>
+      <c r="F26">
+        <v>0.04258299353105548</v>
+      </c>
+      <c r="G26">
+        <v>0.02515151563696182</v>
+      </c>
+      <c r="H26">
+        <v>-0.1028994659480925</v>
+      </c>
+      <c r="I26">
+        <v>0.01164109992430677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.258870453191591</v>
+        <v>0.3205906997424984</v>
       </c>
       <c r="C28">
-        <v>-0.1936937306073606</v>
+        <v>-0.084752455926232</v>
       </c>
       <c r="D28">
-        <v>0.00136198749545239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02090828929768271</v>
+      </c>
+      <c r="E28">
+        <v>-0.04853534781385979</v>
+      </c>
+      <c r="F28">
+        <v>0.04648251510334214</v>
+      </c>
+      <c r="G28">
+        <v>-0.05838318590399177</v>
+      </c>
+      <c r="H28">
+        <v>-0.007263978755062549</v>
+      </c>
+      <c r="I28">
+        <v>0.001281050600501438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.000532188170771472</v>
+        <v>0.00043333236196479</v>
       </c>
       <c r="C29">
-        <v>0.02056834733418512</v>
+        <v>0.03816055465467751</v>
       </c>
       <c r="D29">
-        <v>0.08710399868460342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1001530941353873</v>
+      </c>
+      <c r="E29">
+        <v>0.05714261994069163</v>
+      </c>
+      <c r="F29">
+        <v>0.03606983065669018</v>
+      </c>
+      <c r="G29">
+        <v>0.03680047694671888</v>
+      </c>
+      <c r="H29">
+        <v>-0.1461615193539125</v>
+      </c>
+      <c r="I29">
+        <v>0.01055823120419842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02441886121136679</v>
+        <v>0.01256395812754761</v>
       </c>
       <c r="C30">
-        <v>0.06318619088696319</v>
+        <v>0.09175435083500559</v>
       </c>
       <c r="D30">
-        <v>0.1478671042815851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1382675719809372</v>
+      </c>
+      <c r="E30">
+        <v>0.05473285450536348</v>
+      </c>
+      <c r="F30">
+        <v>0.02226702351348995</v>
+      </c>
+      <c r="G30">
+        <v>-0.01353560518488212</v>
+      </c>
+      <c r="H30">
+        <v>-0.04826653978350584</v>
+      </c>
+      <c r="I30">
+        <v>0.04989571699368651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03526758032756924</v>
+        <v>0.006431407690418798</v>
       </c>
       <c r="C31">
-        <v>0.08458774803340778</v>
+        <v>0.09432948019709432</v>
       </c>
       <c r="D31">
-        <v>0.06098958242110449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03889931312293634</v>
+      </c>
+      <c r="E31">
+        <v>0.0219329597269293</v>
+      </c>
+      <c r="F31">
+        <v>0.01310865972696063</v>
+      </c>
+      <c r="G31">
+        <v>0.01279127817661323</v>
+      </c>
+      <c r="H31">
+        <v>-0.04324463838396407</v>
+      </c>
+      <c r="I31">
+        <v>0.01405866381791572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01478248198179323</v>
+        <v>0.008430702831864629</v>
       </c>
       <c r="C32">
-        <v>0.03385492793388633</v>
+        <v>0.04848410034835601</v>
       </c>
       <c r="D32">
-        <v>0.06092267696796502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09058059366369775</v>
+      </c>
+      <c r="E32">
+        <v>-0.002676154119059782</v>
+      </c>
+      <c r="F32">
+        <v>0.04951394329862133</v>
+      </c>
+      <c r="G32">
+        <v>-0.00382539861028052</v>
+      </c>
+      <c r="H32">
+        <v>-0.05585219246283631</v>
+      </c>
+      <c r="I32">
+        <v>-0.02402430241889616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006413918208598325</v>
+        <v>0.003276352003349216</v>
       </c>
       <c r="C33">
-        <v>0.04144713279844391</v>
+        <v>0.06100401942864838</v>
       </c>
       <c r="D33">
-        <v>0.1196212125829151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1177624657038351</v>
+      </c>
+      <c r="E33">
+        <v>0.03122193836330153</v>
+      </c>
+      <c r="F33">
+        <v>0.02407522289028251</v>
+      </c>
+      <c r="G33">
+        <v>0.01637201541125442</v>
+      </c>
+      <c r="H33">
+        <v>-0.05910022572995044</v>
+      </c>
+      <c r="I33">
+        <v>0.01899752981726545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02078340408205348</v>
+        <v>0.006847736018051991</v>
       </c>
       <c r="C34">
-        <v>0.05901840690068822</v>
+        <v>0.06209568763706277</v>
       </c>
       <c r="D34">
-        <v>0.05474485333571312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02604988116850186</v>
+      </c>
+      <c r="E34">
+        <v>0.02856736172438694</v>
+      </c>
+      <c r="F34">
+        <v>-0.04258352149633039</v>
+      </c>
+      <c r="G34">
+        <v>0.02600884804498088</v>
+      </c>
+      <c r="H34">
+        <v>-0.04525325794693831</v>
+      </c>
+      <c r="I34">
+        <v>0.01507021463658157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00237622723801195</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01182634331207682</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.03383491234446919</v>
+      </c>
+      <c r="E35">
+        <v>0.004325301384389226</v>
+      </c>
+      <c r="F35">
+        <v>0.01769305713716561</v>
+      </c>
+      <c r="G35">
+        <v>0.0160567969966985</v>
+      </c>
+      <c r="H35">
+        <v>-0.05646733512686572</v>
+      </c>
+      <c r="I35">
+        <v>0.01536748449679357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005955096904435641</v>
+        <v>0.01058703668255326</v>
       </c>
       <c r="C36">
-        <v>0.007299589498452348</v>
+        <v>0.02282206092178077</v>
       </c>
       <c r="D36">
-        <v>0.07376785852550011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07302601709454848</v>
+      </c>
+      <c r="E36">
+        <v>0.02974279804521796</v>
+      </c>
+      <c r="F36">
+        <v>0.04791140189158007</v>
+      </c>
+      <c r="G36">
+        <v>0.01331498994575393</v>
+      </c>
+      <c r="H36">
+        <v>-0.06636943184555351</v>
+      </c>
+      <c r="I36">
+        <v>0.01466857985923932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005135455216736395</v>
+        <v>0.01125237805646982</v>
       </c>
       <c r="C38">
-        <v>0.007636820858506329</v>
+        <v>0.02645669708960385</v>
       </c>
       <c r="D38">
-        <v>0.0785404929670785</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08585781417638953</v>
+      </c>
+      <c r="E38">
+        <v>0.008706807021248923</v>
+      </c>
+      <c r="F38">
+        <v>0.002025919187795697</v>
+      </c>
+      <c r="G38">
+        <v>-0.01275439835120613</v>
+      </c>
+      <c r="H38">
+        <v>-0.07085418127695281</v>
+      </c>
+      <c r="I38">
+        <v>0.04369560991245666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01621445620406363</v>
+        <v>0.002548790834405747</v>
       </c>
       <c r="C39">
-        <v>0.05937029600265781</v>
+        <v>0.07921772406241702</v>
       </c>
       <c r="D39">
-        <v>0.1061603880366226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.08748854654934382</v>
+      </c>
+      <c r="E39">
+        <v>0.05156130699296467</v>
+      </c>
+      <c r="F39">
+        <v>-0.01145266576388035</v>
+      </c>
+      <c r="G39">
+        <v>0.03714143239828675</v>
+      </c>
+      <c r="H39">
+        <v>-0.09223340331947043</v>
+      </c>
+      <c r="I39">
+        <v>0.04216315976358853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01535431126682169</v>
+        <v>0.01136736686397954</v>
       </c>
       <c r="C40">
-        <v>0.02346954933505069</v>
+        <v>0.03872606329461628</v>
       </c>
       <c r="D40">
-        <v>0.1142377778700265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09605390187949635</v>
+      </c>
+      <c r="E40">
+        <v>0.04241522975890227</v>
+      </c>
+      <c r="F40">
+        <v>-0.01483801816776094</v>
+      </c>
+      <c r="G40">
+        <v>-0.0404487835465532</v>
+      </c>
+      <c r="H40">
+        <v>-0.1157345876033776</v>
+      </c>
+      <c r="I40">
+        <v>-0.02848668728844614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009914216911560185</v>
+        <v>0.01449084407383543</v>
       </c>
       <c r="C41">
-        <v>0.004334757307250476</v>
+        <v>0.01976147100801312</v>
       </c>
       <c r="D41">
-        <v>0.03192350792761018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0433357242591403</v>
+      </c>
+      <c r="E41">
+        <v>-0.005033911575446988</v>
+      </c>
+      <c r="F41">
+        <v>0.02209612076438638</v>
+      </c>
+      <c r="G41">
+        <v>0.007227033439677182</v>
+      </c>
+      <c r="H41">
+        <v>-0.0457565757374022</v>
+      </c>
+      <c r="I41">
+        <v>0.01478249656384024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0009946421952993646</v>
+        <v>0.007921108980185833</v>
       </c>
       <c r="C43">
-        <v>0.003975450864464067</v>
+        <v>0.01593196480763232</v>
       </c>
       <c r="D43">
-        <v>0.04949735502944346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05179473191848592</v>
+      </c>
+      <c r="E43">
+        <v>0.01258728224269174</v>
+      </c>
+      <c r="F43">
+        <v>0.01924029654018605</v>
+      </c>
+      <c r="G43">
+        <v>0.007487645997956443</v>
+      </c>
+      <c r="H43">
+        <v>-0.05343511688916286</v>
+      </c>
+      <c r="I43">
+        <v>0.03149753989760599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01725801186298293</v>
+        <v>0.0109901009654494</v>
       </c>
       <c r="C44">
-        <v>0.02425389785616464</v>
+        <v>0.04891285279117995</v>
       </c>
       <c r="D44">
-        <v>0.08346465875927965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1007433959900595</v>
+      </c>
+      <c r="E44">
+        <v>0.03608509846955071</v>
+      </c>
+      <c r="F44">
+        <v>0.03632497099727294</v>
+      </c>
+      <c r="G44">
+        <v>-0.02288043106963555</v>
+      </c>
+      <c r="H44">
+        <v>-0.06262209762285925</v>
+      </c>
+      <c r="I44">
+        <v>0.02119525154255775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.007005068698558817</v>
+        <v>-0.001676551340142329</v>
       </c>
       <c r="C46">
-        <v>0.03005636342556544</v>
+        <v>0.04278886555811993</v>
       </c>
       <c r="D46">
-        <v>0.07917021576361187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0695737555018396</v>
+      </c>
+      <c r="E46">
+        <v>0.04364606586568059</v>
+      </c>
+      <c r="F46">
+        <v>0.02743017494904928</v>
+      </c>
+      <c r="G46">
+        <v>0.01611583675841021</v>
+      </c>
+      <c r="H46">
+        <v>-0.1285857810649649</v>
+      </c>
+      <c r="I46">
+        <v>0.03914677556673719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07789235976826962</v>
+        <v>0.02898618859477281</v>
       </c>
       <c r="C47">
-        <v>0.1073709709667428</v>
+        <v>0.1290910368765492</v>
       </c>
       <c r="D47">
-        <v>0.05183956796338433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02173887651748432</v>
+      </c>
+      <c r="E47">
+        <v>-0.008325947413250401</v>
+      </c>
+      <c r="F47">
+        <v>-0.00699169624400602</v>
+      </c>
+      <c r="G47">
+        <v>0.05305807028747617</v>
+      </c>
+      <c r="H47">
+        <v>-0.03890252234103422</v>
+      </c>
+      <c r="I47">
+        <v>0.02909864399501334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009083494029393574</v>
+        <v>0.0134273891672324</v>
       </c>
       <c r="C48">
-        <v>0.01703653948682637</v>
+        <v>0.03415962593380192</v>
       </c>
       <c r="D48">
-        <v>0.06974523040290345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07579530572279215</v>
+      </c>
+      <c r="E48">
+        <v>0.02227361079416622</v>
+      </c>
+      <c r="F48">
+        <v>0.0551630368655394</v>
+      </c>
+      <c r="G48">
+        <v>0.01635042250173803</v>
+      </c>
+      <c r="H48">
+        <v>-0.1090772727868151</v>
+      </c>
+      <c r="I48">
+        <v>0.03311531443027468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03182255140948793</v>
+        <v>0.01012219742906572</v>
       </c>
       <c r="C50">
-        <v>0.05876982077704779</v>
+        <v>0.07597947305275758</v>
       </c>
       <c r="D50">
-        <v>0.05633143447563364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04778982991721361</v>
+      </c>
+      <c r="E50">
+        <v>0.01710426342002911</v>
+      </c>
+      <c r="F50">
+        <v>0.005836512943826743</v>
+      </c>
+      <c r="G50">
+        <v>0.00202158196888418</v>
+      </c>
+      <c r="H50">
+        <v>-0.0284023225853485</v>
+      </c>
+      <c r="I50">
+        <v>0.02368873414905046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001746781194293491</v>
+        <v>-0.001160186145778968</v>
       </c>
       <c r="C51">
-        <v>0.005278570527168023</v>
+        <v>0.01711933644864359</v>
       </c>
       <c r="D51">
-        <v>0.05522937668487578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05601380938574099</v>
+      </c>
+      <c r="E51">
+        <v>0.03569826497787167</v>
+      </c>
+      <c r="F51">
+        <v>0.03802462328712818</v>
+      </c>
+      <c r="G51">
+        <v>-0.009860114388717091</v>
+      </c>
+      <c r="H51">
+        <v>-0.06320438517344686</v>
+      </c>
+      <c r="I51">
+        <v>-0.007971128412596435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1062062005734363</v>
+        <v>0.04955241513192007</v>
       </c>
       <c r="C53">
-        <v>0.1259567740840368</v>
+        <v>0.1577955669095537</v>
       </c>
       <c r="D53">
-        <v>-0.001850809086968476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02401277598136038</v>
+      </c>
+      <c r="E53">
+        <v>-0.02627750711030982</v>
+      </c>
+      <c r="F53">
+        <v>0.04800916141819569</v>
+      </c>
+      <c r="G53">
+        <v>0.002403762164032394</v>
+      </c>
+      <c r="H53">
+        <v>-0.00441302460408987</v>
+      </c>
+      <c r="I53">
+        <v>0.01646820877483252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.009772762689982593</v>
+        <v>0.009348934236715534</v>
       </c>
       <c r="C54">
-        <v>0.02076579380751316</v>
+        <v>0.03832662516236561</v>
       </c>
       <c r="D54">
-        <v>0.08632673712515218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0770793167733106</v>
+      </c>
+      <c r="E54">
+        <v>0.01966816954263078</v>
+      </c>
+      <c r="F54">
+        <v>0.00214701252603847</v>
+      </c>
+      <c r="G54">
+        <v>-0.001595553664982602</v>
+      </c>
+      <c r="H54">
+        <v>-0.08021313562282215</v>
+      </c>
+      <c r="I54">
+        <v>0.04459780498934737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09367398643966915</v>
+        <v>0.03871050672513326</v>
       </c>
       <c r="C55">
-        <v>0.1070574347275977</v>
+        <v>0.1317563615759474</v>
       </c>
       <c r="D55">
-        <v>0.006834740480478834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03251762183372489</v>
+      </c>
+      <c r="E55">
+        <v>0.008581265066014679</v>
+      </c>
+      <c r="F55">
+        <v>0.009635828380748133</v>
+      </c>
+      <c r="G55">
+        <v>0.002863142082230863</v>
+      </c>
+      <c r="H55">
+        <v>-0.01064597506018157</v>
+      </c>
+      <c r="I55">
+        <v>-0.008049346934329888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1338755149901075</v>
+        <v>0.05387062524182412</v>
       </c>
       <c r="C56">
-        <v>0.1465202858758509</v>
+        <v>0.1922937644138535</v>
       </c>
       <c r="D56">
-        <v>0.006731941417276361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03176226482472341</v>
+      </c>
+      <c r="E56">
+        <v>-0.02749934186350305</v>
+      </c>
+      <c r="F56">
+        <v>0.01416007335279613</v>
+      </c>
+      <c r="G56">
+        <v>-0.04441194298598363</v>
+      </c>
+      <c r="H56">
+        <v>-0.0210527422428843</v>
+      </c>
+      <c r="I56">
+        <v>-0.01446004054840607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.008671501513529493</v>
+        <v>0.00210311591878958</v>
       </c>
       <c r="C58">
-        <v>0.00978367909975035</v>
+        <v>0.05636840628239229</v>
       </c>
       <c r="D58">
-        <v>0.2026957196873849</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2881673840638104</v>
+      </c>
+      <c r="E58">
+        <v>0.01892063304565112</v>
+      </c>
+      <c r="F58">
+        <v>0.1226303467767925</v>
+      </c>
+      <c r="G58">
+        <v>-0.1730800211892265</v>
+      </c>
+      <c r="H58">
+        <v>0.04070863767128691</v>
+      </c>
+      <c r="I58">
+        <v>0.02795611357737523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1823781969330424</v>
+        <v>0.2553208657059631</v>
       </c>
       <c r="C59">
-        <v>-0.1452278320175728</v>
+        <v>-0.05639029030319728</v>
       </c>
       <c r="D59">
-        <v>0.03590488095251113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05474433709918627</v>
+      </c>
+      <c r="E59">
+        <v>-0.02072133086318027</v>
+      </c>
+      <c r="F59">
+        <v>0.02367840849482183</v>
+      </c>
+      <c r="G59">
+        <v>-0.005244139907059672</v>
+      </c>
+      <c r="H59">
+        <v>-0.00742305011602716</v>
+      </c>
+      <c r="I59">
+        <v>-0.04032280201927044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1834633649423013</v>
+        <v>0.1463207667146465</v>
       </c>
       <c r="C60">
-        <v>0.1016452380008808</v>
+        <v>0.1754018620747409</v>
       </c>
       <c r="D60">
-        <v>0.2410703840288738</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.09766275480523277</v>
+      </c>
+      <c r="E60">
+        <v>0.1518906035267344</v>
+      </c>
+      <c r="F60">
+        <v>-0.2150283423130376</v>
+      </c>
+      <c r="G60">
+        <v>0.2018390134174241</v>
+      </c>
+      <c r="H60">
+        <v>0.2694441322463305</v>
+      </c>
+      <c r="I60">
+        <v>-0.1255870371408614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02486391004636634</v>
+        <v>0.01015007462977925</v>
       </c>
       <c r="C61">
-        <v>0.05341599531745665</v>
+        <v>0.0749276519496381</v>
       </c>
       <c r="D61">
-        <v>0.08790094306000407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.07147891632722739</v>
+      </c>
+      <c r="E61">
+        <v>0.03863013493358335</v>
+      </c>
+      <c r="F61">
+        <v>-0.0176316471765972</v>
+      </c>
+      <c r="G61">
+        <v>0.04877363006663335</v>
+      </c>
+      <c r="H61">
+        <v>-0.07514987050445202</v>
+      </c>
+      <c r="I61">
+        <v>0.02846126957522475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.00674432289546768</v>
+        <v>0.008269829980286671</v>
       </c>
       <c r="C63">
-        <v>0.02354108949016515</v>
+        <v>0.03729818186282827</v>
       </c>
       <c r="D63">
-        <v>0.09271757471650599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06751997876833464</v>
+      </c>
+      <c r="E63">
+        <v>0.05850834988602515</v>
+      </c>
+      <c r="F63">
+        <v>0.02339663970749415</v>
+      </c>
+      <c r="G63">
+        <v>0.01858769058529614</v>
+      </c>
+      <c r="H63">
+        <v>-0.07045948381280133</v>
+      </c>
+      <c r="I63">
+        <v>0.02725652847360136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05504700138547242</v>
+        <v>0.01438975010279258</v>
       </c>
       <c r="C64">
-        <v>0.08725774933551421</v>
+        <v>0.1058321875972051</v>
       </c>
       <c r="D64">
-        <v>0.00825445523717429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003801589547668537</v>
+      </c>
+      <c r="E64">
+        <v>0.0246230305534602</v>
+      </c>
+      <c r="F64">
+        <v>0.008706779419990608</v>
+      </c>
+      <c r="G64">
+        <v>0.0514054392436272</v>
+      </c>
+      <c r="H64">
+        <v>-0.05105346852570537</v>
+      </c>
+      <c r="I64">
+        <v>0.05567162697811633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02530798542126167</v>
+        <v>0.01976845036603155</v>
       </c>
       <c r="C65">
-        <v>0.0159758872236456</v>
+        <v>0.04476736487320945</v>
       </c>
       <c r="D65">
-        <v>0.1066498890396396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1136711761986204</v>
+      </c>
+      <c r="E65">
+        <v>0.04515950478310043</v>
+      </c>
+      <c r="F65">
+        <v>-0.006775919417252497</v>
+      </c>
+      <c r="G65">
+        <v>0.02876757652362173</v>
+      </c>
+      <c r="H65">
+        <v>-0.003731368733639357</v>
+      </c>
+      <c r="I65">
+        <v>0.04453850514342639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02116125660958266</v>
+        <v>2.541567314348441e-05</v>
       </c>
       <c r="C66">
-        <v>0.0689229507369858</v>
+        <v>0.09784305450815957</v>
       </c>
       <c r="D66">
-        <v>0.121310489617159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1178491855541229</v>
+      </c>
+      <c r="E66">
+        <v>0.04277314064371658</v>
+      </c>
+      <c r="F66">
+        <v>-0.01205415838258801</v>
+      </c>
+      <c r="G66">
+        <v>0.004145708024728189</v>
+      </c>
+      <c r="H66">
+        <v>-0.06634208094953148</v>
+      </c>
+      <c r="I66">
+        <v>0.03245767653272234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02346856793319871</v>
+        <v>0.02120369692247717</v>
       </c>
       <c r="C67">
-        <v>0.02077727244149158</v>
+        <v>0.03758430179954905</v>
       </c>
       <c r="D67">
-        <v>0.04142297358055083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.04119826394755006</v>
+      </c>
+      <c r="E67">
+        <v>0.01393079953749473</v>
+      </c>
+      <c r="F67">
+        <v>-0.02940532885567654</v>
+      </c>
+      <c r="G67">
+        <v>0.004258860140352356</v>
+      </c>
+      <c r="H67">
+        <v>-0.06239383073256664</v>
+      </c>
+      <c r="I67">
+        <v>0.03759220730152903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2047345495022621</v>
+        <v>0.275982980241224</v>
       </c>
       <c r="C68">
-        <v>-0.1543777657354833</v>
+        <v>-0.0625977672608649</v>
       </c>
       <c r="D68">
-        <v>0.03254411062683568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03042429496483639</v>
+      </c>
+      <c r="E68">
+        <v>-0.001966373292321874</v>
+      </c>
+      <c r="F68">
+        <v>0.02861327146475022</v>
+      </c>
+      <c r="G68">
+        <v>-0.07603880256105093</v>
+      </c>
+      <c r="H68">
+        <v>0.03987997558637197</v>
+      </c>
+      <c r="I68">
+        <v>-0.01831277836215504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05352578815727994</v>
+        <v>0.01456099519445748</v>
       </c>
       <c r="C69">
-        <v>0.1163092731098707</v>
+        <v>0.11809057786127</v>
       </c>
       <c r="D69">
-        <v>0.0763345508231965</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02876832609340667</v>
+      </c>
+      <c r="E69">
+        <v>0.009537580987208279</v>
+      </c>
+      <c r="F69">
+        <v>-0.009932037342719481</v>
+      </c>
+      <c r="G69">
+        <v>0.0332978151796021</v>
+      </c>
+      <c r="H69">
+        <v>-0.03593033290402935</v>
+      </c>
+      <c r="I69">
+        <v>0.01165613295246318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2146884716233308</v>
+        <v>0.2769275338528046</v>
       </c>
       <c r="C71">
-        <v>-0.1777428985432416</v>
+        <v>-0.07536624106813328</v>
       </c>
       <c r="D71">
-        <v>0.01406784125346349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01646490922449241</v>
+      </c>
+      <c r="E71">
+        <v>-0.000133868737267377</v>
+      </c>
+      <c r="F71">
+        <v>0.01588403487624968</v>
+      </c>
+      <c r="G71">
+        <v>-0.03301081932686934</v>
+      </c>
+      <c r="H71">
+        <v>-0.01112992517658284</v>
+      </c>
+      <c r="I71">
+        <v>0.005351470258938997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1023877334543344</v>
+        <v>0.05321243684755717</v>
       </c>
       <c r="C72">
-        <v>0.07682041769384121</v>
+        <v>0.1286951905179161</v>
       </c>
       <c r="D72">
-        <v>0.1240986060885076</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06112060320334565</v>
+      </c>
+      <c r="E72">
+        <v>0.06893159020139268</v>
+      </c>
+      <c r="F72">
+        <v>-0.02830459446675788</v>
+      </c>
+      <c r="G72">
+        <v>0.0499931293760176</v>
+      </c>
+      <c r="H72">
+        <v>-0.03692423851073969</v>
+      </c>
+      <c r="I72">
+        <v>0.03646629264613943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1714455168070782</v>
+        <v>0.1355737852141539</v>
       </c>
       <c r="C73">
-        <v>0.06877156680273827</v>
+        <v>0.1517709839661745</v>
       </c>
       <c r="D73">
-        <v>0.3120872424511598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.101197570239688</v>
+      </c>
+      <c r="E73">
+        <v>0.2750837958323278</v>
+      </c>
+      <c r="F73">
+        <v>-0.3050121848097245</v>
+      </c>
+      <c r="G73">
+        <v>0.3695204127881969</v>
+      </c>
+      <c r="H73">
+        <v>0.2501730284987612</v>
+      </c>
+      <c r="I73">
+        <v>-0.03943155900832711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1056124511499161</v>
+        <v>0.04729083569991015</v>
       </c>
       <c r="C74">
-        <v>0.1156041655738275</v>
+        <v>0.1444862416264457</v>
       </c>
       <c r="D74">
-        <v>-0.02374631346026788</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04278463989096683</v>
+      </c>
+      <c r="E74">
+        <v>-0.009168213601048037</v>
+      </c>
+      <c r="F74">
+        <v>0.03537250317893801</v>
+      </c>
+      <c r="G74">
+        <v>0.005082181242455242</v>
+      </c>
+      <c r="H74">
+        <v>0.01931044150644795</v>
+      </c>
+      <c r="I74">
+        <v>-0.008044865438067159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2312915961269667</v>
+        <v>0.10018733441766</v>
       </c>
       <c r="C75">
-        <v>0.2008596665094826</v>
+        <v>0.2710357583652023</v>
       </c>
       <c r="D75">
-        <v>-0.09949863652019257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1307038180296727</v>
+      </c>
+      <c r="E75">
+        <v>-0.09182239691361054</v>
+      </c>
+      <c r="F75">
+        <v>-0.03017533773282869</v>
+      </c>
+      <c r="G75">
+        <v>-0.1005806842619929</v>
+      </c>
+      <c r="H75">
+        <v>-0.03600555902762436</v>
+      </c>
+      <c r="I75">
+        <v>0.04498316097739662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1354428800651497</v>
+        <v>0.05575792460868375</v>
       </c>
       <c r="C76">
-        <v>0.1390802983075473</v>
+        <v>0.181126851114347</v>
       </c>
       <c r="D76">
-        <v>0.005164642244968203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04475254938427688</v>
+      </c>
+      <c r="E76">
+        <v>-0.01950388087289888</v>
+      </c>
+      <c r="F76">
+        <v>0.001626008879441736</v>
+      </c>
+      <c r="G76">
+        <v>-0.0304223948788559</v>
+      </c>
+      <c r="H76">
+        <v>-0.04099971699615335</v>
+      </c>
+      <c r="I76">
+        <v>0.007046030200163401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01955365950309966</v>
+        <v>-0.002132863054126185</v>
       </c>
       <c r="C77">
-        <v>0.06730562239573901</v>
+        <v>0.1064434045173744</v>
       </c>
       <c r="D77">
-        <v>-0.05678226690686162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.3200969952608775</v>
+      </c>
+      <c r="E77">
+        <v>-0.8503011004010459</v>
+      </c>
+      <c r="F77">
+        <v>-0.1939172069689133</v>
+      </c>
+      <c r="G77">
+        <v>0.1653516966241189</v>
+      </c>
+      <c r="H77">
+        <v>0.1799265682624186</v>
+      </c>
+      <c r="I77">
+        <v>0.01665409312428504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02858825800384886</v>
+        <v>0.01415620025459634</v>
       </c>
       <c r="C78">
-        <v>0.070613563069089</v>
+        <v>0.09212793449442713</v>
       </c>
       <c r="D78">
-        <v>0.1388064469743265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1107728865302537</v>
+      </c>
+      <c r="E78">
+        <v>0.06487136542092724</v>
+      </c>
+      <c r="F78">
+        <v>0.0449372879668225</v>
+      </c>
+      <c r="G78">
+        <v>-0.03306473405402351</v>
+      </c>
+      <c r="H78">
+        <v>-0.05508623227162534</v>
+      </c>
+      <c r="I78">
+        <v>-0.04585126707082549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09819317706279135</v>
+        <v>0.03434094145941192</v>
       </c>
       <c r="C79">
-        <v>0.1853560362220582</v>
+        <v>0.1968704470419262</v>
       </c>
       <c r="D79">
-        <v>-0.2438081906166573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08727436945075448</v>
+      </c>
+      <c r="E79">
+        <v>-0.05071804475006957</v>
+      </c>
+      <c r="F79">
+        <v>0.7947821718712473</v>
+      </c>
+      <c r="G79">
+        <v>0.3181977914109598</v>
+      </c>
+      <c r="H79">
+        <v>0.3423502782048775</v>
+      </c>
+      <c r="I79">
+        <v>0.009296412568999022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004343450657662713</v>
+        <v>0.004386089216085963</v>
       </c>
       <c r="C80">
-        <v>0.04382297901548091</v>
+        <v>0.04401848784778441</v>
       </c>
       <c r="D80">
-        <v>0.0506139637112363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03940986146919531</v>
+      </c>
+      <c r="E80">
+        <v>0.04229995200705934</v>
+      </c>
+      <c r="F80">
+        <v>0.0006933234560022215</v>
+      </c>
+      <c r="G80">
+        <v>0.01039213228055423</v>
+      </c>
+      <c r="H80">
+        <v>-0.03656132426468483</v>
+      </c>
+      <c r="I80">
+        <v>-0.08166109332886765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1172263101827972</v>
+        <v>0.03909602481731268</v>
       </c>
       <c r="C81">
-        <v>0.1367586955339169</v>
+        <v>0.166609224014201</v>
       </c>
       <c r="D81">
-        <v>-0.08203305413106587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08580189442849021</v>
+      </c>
+      <c r="E81">
+        <v>-0.04439202218028174</v>
+      </c>
+      <c r="F81">
+        <v>0.05828803676298002</v>
+      </c>
+      <c r="G81">
+        <v>-0.03887079087977437</v>
+      </c>
+      <c r="H81">
+        <v>-0.07802102457159289</v>
+      </c>
+      <c r="I81">
+        <v>-0.006468692940125211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2481925014451276</v>
+        <v>0.08413214636715328</v>
       </c>
       <c r="C82">
-        <v>0.2962890353677164</v>
+        <v>0.3190119532368486</v>
       </c>
       <c r="D82">
-        <v>-0.1792829997408412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2435515535184826</v>
+      </c>
+      <c r="E82">
+        <v>-0.0651835974469684</v>
+      </c>
+      <c r="F82">
+        <v>-0.1143698914581231</v>
+      </c>
+      <c r="G82">
+        <v>-0.08710298589718678</v>
+      </c>
+      <c r="H82">
+        <v>-0.1256803189160641</v>
+      </c>
+      <c r="I82">
+        <v>-0.008966577969207887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01072224652999874</v>
+        <v>-0.01674154394695156</v>
       </c>
       <c r="C83">
-        <v>0.05130479820549139</v>
+        <v>0.01794366008573927</v>
       </c>
       <c r="D83">
-        <v>-0.01418363853853933</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01341782173751478</v>
+      </c>
+      <c r="E83">
+        <v>-0.0859859999920637</v>
+      </c>
+      <c r="F83">
+        <v>0.06250254893439647</v>
+      </c>
+      <c r="G83">
+        <v>0.0563571852257199</v>
+      </c>
+      <c r="H83">
+        <v>-0.1986196537176573</v>
+      </c>
+      <c r="I83">
+        <v>-0.9126918422235273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0009297992023580978</v>
+        <v>-0.003030978048492168</v>
       </c>
       <c r="C84">
-        <v>-4.061193056647766e-05</v>
+        <v>0.01759576881871174</v>
       </c>
       <c r="D84">
-        <v>0.009817122697194265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04377878837805779</v>
+      </c>
+      <c r="E84">
+        <v>-0.0009991925639444869</v>
+      </c>
+      <c r="F84">
+        <v>0.03183939136452869</v>
+      </c>
+      <c r="G84">
+        <v>-0.04475600055765778</v>
+      </c>
+      <c r="H84">
+        <v>-0.0431040919164998</v>
+      </c>
+      <c r="I84">
+        <v>0.0537306757646306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1390302716886503</v>
+        <v>0.05388930040921439</v>
       </c>
       <c r="C85">
-        <v>0.1418265723064276</v>
+        <v>0.1838441801128863</v>
       </c>
       <c r="D85">
-        <v>-0.05347626226040296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0991536573827862</v>
+      </c>
+      <c r="E85">
+        <v>0.002481461617940045</v>
+      </c>
+      <c r="F85">
+        <v>0.06960883296775013</v>
+      </c>
+      <c r="G85">
+        <v>-0.02188249408006062</v>
+      </c>
+      <c r="H85">
+        <v>0.00868103849321197</v>
+      </c>
+      <c r="I85">
+        <v>-0.002178798369792398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01548481104089309</v>
+        <v>0.0111410043506226</v>
       </c>
       <c r="C86">
-        <v>0.01007050774934267</v>
+        <v>0.03617226293954263</v>
       </c>
       <c r="D86">
-        <v>0.09230823872538954</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1108952902627297</v>
+      </c>
+      <c r="E86">
+        <v>-0.0136719778464051</v>
+      </c>
+      <c r="F86">
+        <v>0.005382061355049689</v>
+      </c>
+      <c r="G86">
+        <v>0.02071197092614817</v>
+      </c>
+      <c r="H86">
+        <v>-0.03515651357320264</v>
+      </c>
+      <c r="I86">
+        <v>0.02478316415025211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02029860259675969</v>
+        <v>0.0103308125765973</v>
       </c>
       <c r="C87">
-        <v>0.02708952646000949</v>
+        <v>0.0606778415834504</v>
       </c>
       <c r="D87">
-        <v>0.1217865510451916</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.138731817196901</v>
+      </c>
+      <c r="E87">
+        <v>0.01373640777176089</v>
+      </c>
+      <c r="F87">
+        <v>0.04063557309317874</v>
+      </c>
+      <c r="G87">
+        <v>-0.03789782620547515</v>
+      </c>
+      <c r="H87">
+        <v>-0.07714016595989075</v>
+      </c>
+      <c r="I87">
+        <v>-0.02100263952118879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.04977336539717121</v>
+        <v>0.03027496937239976</v>
       </c>
       <c r="C88">
-        <v>0.04438392202809625</v>
+        <v>0.06796881671406149</v>
       </c>
       <c r="D88">
-        <v>0.01930809288735709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01586958330154502</v>
+      </c>
+      <c r="E88">
+        <v>0.03140549635207066</v>
+      </c>
+      <c r="F88">
+        <v>0.0187510188978012</v>
+      </c>
+      <c r="G88">
+        <v>0.01660363233330393</v>
+      </c>
+      <c r="H88">
+        <v>-0.001983138199213912</v>
+      </c>
+      <c r="I88">
+        <v>0.0283932327962085</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.322770553616199</v>
+        <v>0.4091042317878414</v>
       </c>
       <c r="C89">
-        <v>-0.3228527432252059</v>
+        <v>-0.1458695897123514</v>
       </c>
       <c r="D89">
-        <v>0.001667837176370637</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03589538720367764</v>
+      </c>
+      <c r="E89">
+        <v>-0.05375904233052589</v>
+      </c>
+      <c r="F89">
+        <v>0.0621402915105005</v>
+      </c>
+      <c r="G89">
+        <v>0.01691021040550874</v>
+      </c>
+      <c r="H89">
+        <v>-0.1332438700928231</v>
+      </c>
+      <c r="I89">
+        <v>-0.06823531457832019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2576723171875423</v>
+        <v>0.3225085052274234</v>
       </c>
       <c r="C90">
-        <v>-0.2369675828786026</v>
+        <v>-0.09834908294004858</v>
       </c>
       <c r="D90">
-        <v>0.04468488697146462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03643319076707675</v>
+      </c>
+      <c r="E90">
+        <v>-0.009139238035628418</v>
+      </c>
+      <c r="F90">
+        <v>-0.004170891148042779</v>
+      </c>
+      <c r="G90">
+        <v>-0.06697709837522466</v>
+      </c>
+      <c r="H90">
+        <v>-0.01535048067694783</v>
+      </c>
+      <c r="I90">
+        <v>-0.03725758103618853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1535307095058799</v>
+        <v>0.06310606557120436</v>
       </c>
       <c r="C91">
-        <v>0.1864382587432559</v>
+        <v>0.2072166809945922</v>
       </c>
       <c r="D91">
-        <v>-0.105987563886282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1105015068712828</v>
+      </c>
+      <c r="E91">
+        <v>-0.05763332144400381</v>
+      </c>
+      <c r="F91">
+        <v>0.06458681840851102</v>
+      </c>
+      <c r="G91">
+        <v>-0.003936094222217892</v>
+      </c>
+      <c r="H91">
+        <v>0.008440222103836548</v>
+      </c>
+      <c r="I91">
+        <v>-0.02707192336051163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.243254036380952</v>
+        <v>0.3414758366115144</v>
       </c>
       <c r="C92">
-        <v>-0.2607833695454687</v>
+        <v>-0.1340514033283441</v>
       </c>
       <c r="D92">
-        <v>-0.06979494505156829</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.004400964521200757</v>
+      </c>
+      <c r="E92">
+        <v>-0.0628481290757244</v>
+      </c>
+      <c r="F92">
+        <v>0.03227434541289072</v>
+      </c>
+      <c r="G92">
+        <v>-0.04038550774495162</v>
+      </c>
+      <c r="H92">
+        <v>-0.01778255077368746</v>
+      </c>
+      <c r="I92">
+        <v>0.1380298557583135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2849068969829437</v>
+        <v>0.33691188864447</v>
       </c>
       <c r="C93">
-        <v>-0.2471425995601239</v>
+        <v>-0.1064403467482196</v>
       </c>
       <c r="D93">
-        <v>0.01134601037134052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01664785300508063</v>
+      </c>
+      <c r="E93">
+        <v>0.0282204438024749</v>
+      </c>
+      <c r="F93">
+        <v>0.004895221216227845</v>
+      </c>
+      <c r="G93">
+        <v>0.007338661145334979</v>
+      </c>
+      <c r="H93">
+        <v>0.02207317581467596</v>
+      </c>
+      <c r="I93">
+        <v>0.03070352760680726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2905680462250987</v>
+        <v>0.1207764312277999</v>
       </c>
       <c r="C94">
-        <v>0.2729232999752216</v>
+        <v>0.3490211093968104</v>
       </c>
       <c r="D94">
-        <v>-0.2919442935621668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3550509134342942</v>
+      </c>
+      <c r="E94">
+        <v>-0.05641109799959549</v>
+      </c>
+      <c r="F94">
+        <v>-0.1113029279511814</v>
+      </c>
+      <c r="G94">
+        <v>-0.3322816126636615</v>
+      </c>
+      <c r="H94">
+        <v>-0.01510805138285021</v>
+      </c>
+      <c r="I94">
+        <v>0.001657325924594977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0133746669551399</v>
+        <v>0.01499094741866162</v>
       </c>
       <c r="C95">
-        <v>0.04230776762824987</v>
+        <v>0.06613756195913213</v>
       </c>
       <c r="D95">
-        <v>-0.02892341856688909</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09077290925636215</v>
+      </c>
+      <c r="E95">
+        <v>-0.1623575307746272</v>
+      </c>
+      <c r="F95">
+        <v>-0.03150252578822697</v>
+      </c>
+      <c r="G95">
+        <v>0.1189867596821502</v>
+      </c>
+      <c r="H95">
+        <v>-0.3044528962978376</v>
+      </c>
+      <c r="I95">
+        <v>0.1757464227193646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001377174119317152</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009597874978745905</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0008102609944283932</v>
+      </c>
+      <c r="E97">
+        <v>0.003804485928790238</v>
+      </c>
+      <c r="F97">
+        <v>0.0005021679311405253</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005648587578866363</v>
+      </c>
+      <c r="H97">
+        <v>-0.003880558955483803</v>
+      </c>
+      <c r="I97">
+        <v>0.007035721828577379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.148819965061565</v>
+        <v>0.1168301634898248</v>
       </c>
       <c r="C98">
-        <v>0.08635922361747179</v>
+        <v>0.1555133604628095</v>
       </c>
       <c r="D98">
-        <v>0.1983042447063715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.07009433626513766</v>
+      </c>
+      <c r="E98">
+        <v>0.183659892713102</v>
+      </c>
+      <c r="F98">
+        <v>-0.2327251282510537</v>
+      </c>
+      <c r="G98">
+        <v>0.2543336036994799</v>
+      </c>
+      <c r="H98">
+        <v>0.2074172421452672</v>
+      </c>
+      <c r="I98">
+        <v>-0.06976726703399712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.000193594197371072</v>
+        <v>0.0009182088219078859</v>
       </c>
       <c r="C101">
-        <v>0.01982956005630038</v>
+        <v>0.03742089671915483</v>
       </c>
       <c r="D101">
-        <v>0.08660879930410534</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09937265875646058</v>
+      </c>
+      <c r="E101">
+        <v>0.05645553150654069</v>
+      </c>
+      <c r="F101">
+        <v>0.03626932195638757</v>
+      </c>
+      <c r="G101">
+        <v>0.0360005682229217</v>
+      </c>
+      <c r="H101">
+        <v>-0.1466957384647415</v>
+      </c>
+      <c r="I101">
+        <v>0.01054272538964551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.106218408074607</v>
+        <v>0.02726466830900641</v>
       </c>
       <c r="C102">
-        <v>0.1577557042001364</v>
+        <v>0.1480133334387385</v>
       </c>
       <c r="D102">
-        <v>-0.05843694242968313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.101592986863438</v>
+      </c>
+      <c r="E102">
+        <v>-0.04026830482593541</v>
+      </c>
+      <c r="F102">
+        <v>-0.06842050634481459</v>
+      </c>
+      <c r="G102">
+        <v>0.00599902831336407</v>
+      </c>
+      <c r="H102">
+        <v>-0.03945307386977161</v>
+      </c>
+      <c r="I102">
+        <v>-0.01570780245809874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
